--- a/附件2.xlsx
+++ b/附件2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\flas\source\course\modelling\agristrat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B1E6AD-B4AE-4534-8D74-74C86B3896AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EE49D8-43C7-4B7C-BA08-67175AE3E034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023年的农作物种植情况" sheetId="4" r:id="rId1"/>
@@ -2208,34 +2208,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>profit(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>￥/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mu)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>profit-log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2243,6 +2220,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="General\(&quot;¥&quot;\/&quot;亩&quot;\)"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2374,11 +2354,10 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2483,7 +2462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2568,16 +2547,22 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3456,7 +3441,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="4">
@@ -3476,7 +3461,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="4">
         <v>36</v>
       </c>
@@ -3494,7 +3479,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="4">
@@ -3514,7 +3499,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="4">
         <v>35</v>
       </c>
@@ -3532,7 +3517,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="4">
@@ -3552,7 +3537,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="4">
         <v>35</v>
       </c>
@@ -3570,7 +3555,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="4">
@@ -3590,7 +3575,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="4">
         <v>35</v>
       </c>
@@ -3608,7 +3593,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B36" s="4">
@@ -3628,7 +3613,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="4">
         <v>36</v>
       </c>
@@ -3646,7 +3631,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="4">
@@ -3666,7 +3651,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="4">
         <v>37</v>
       </c>
@@ -3724,7 +3709,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="29" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="4">
@@ -3744,7 +3729,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="4">
         <v>38</v>
       </c>
@@ -3762,7 +3747,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="29" t="s">
         <v>95</v>
       </c>
       <c r="B44" s="4">
@@ -3782,7 +3767,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="4">
         <v>38</v>
       </c>
@@ -3800,7 +3785,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="29" t="s">
         <v>127</v>
       </c>
       <c r="B46" s="4">
@@ -3820,7 +3805,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="4">
         <v>38</v>
       </c>
@@ -3838,7 +3823,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="29" t="s">
         <v>128</v>
       </c>
       <c r="B48" s="4">
@@ -3858,7 +3843,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="4">
         <v>39</v>
       </c>
@@ -3876,7 +3861,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="29" t="s">
         <v>96</v>
       </c>
       <c r="B50" s="4">
@@ -3896,7 +3881,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="4">
         <v>39</v>
       </c>
@@ -3914,7 +3899,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="29" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="4">
@@ -3934,7 +3919,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="4">
         <v>39</v>
       </c>
@@ -3952,7 +3937,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="29" t="s">
         <v>98</v>
       </c>
       <c r="B54" s="4">
@@ -3972,7 +3957,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="4">
         <v>40</v>
       </c>
@@ -3990,7 +3975,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="29" t="s">
         <v>129</v>
       </c>
       <c r="B56" s="4">
@@ -4010,7 +3995,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="4">
         <v>40</v>
       </c>
@@ -4028,7 +4013,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="29" t="s">
         <v>99</v>
       </c>
       <c r="B58" s="4">
@@ -4048,7 +4033,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="4">
         <v>40</v>
       </c>
@@ -4066,7 +4051,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="29" t="s">
         <v>100</v>
       </c>
       <c r="B60" s="4">
@@ -4086,7 +4071,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="4">
         <v>41</v>
       </c>
@@ -4104,7 +4089,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="29" t="s">
         <v>101</v>
       </c>
       <c r="B62" s="4">
@@ -4124,7 +4109,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="4">
         <v>41</v>
       </c>
@@ -4142,7 +4127,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="29" t="s">
         <v>102</v>
       </c>
       <c r="B64" s="4">
@@ -4162,7 +4147,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="4">
         <v>41</v>
       </c>
@@ -4180,7 +4165,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="29" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="4">
@@ -4200,7 +4185,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="4">
         <v>41</v>
       </c>
@@ -4218,7 +4203,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="29" t="s">
         <v>104</v>
       </c>
       <c r="B68" s="4">
@@ -4238,7 +4223,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="4">
         <v>41</v>
       </c>
@@ -4256,7 +4241,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="29" t="s">
         <v>130</v>
       </c>
       <c r="B70" s="4">
@@ -4294,7 +4279,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="4">
         <v>41</v>
       </c>
@@ -4312,7 +4297,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="29" t="s">
         <v>131</v>
       </c>
       <c r="B73" s="4">
@@ -4332,7 +4317,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="4">
         <v>41</v>
       </c>
@@ -4350,7 +4335,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="29" t="s">
         <v>105</v>
       </c>
       <c r="B75" s="4">
@@ -4406,7 +4391,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="4">
         <v>21</v>
       </c>
@@ -4424,7 +4409,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="29" t="s">
         <v>106</v>
       </c>
       <c r="B79" s="4">
@@ -4480,7 +4465,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="4">
         <v>29</v>
       </c>
@@ -4498,7 +4483,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="29" t="s">
         <v>132</v>
       </c>
       <c r="B83" s="4">
@@ -4536,7 +4521,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="4">
         <v>30</v>
       </c>
@@ -4554,7 +4539,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="29" t="s">
         <v>133</v>
       </c>
       <c r="B86" s="4">
@@ -4592,7 +4577,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="4">
         <v>23</v>
       </c>
@@ -4611,11 +4596,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
@@ -4631,12 +4617,11 @@
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A70:A72"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4651,8 +4636,8 @@
   </sheetPr>
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7504,8 +7489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5CC932-073B-4BEF-AB94-6447BA46F6AC}">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7544,20 +7529,20 @@
       <c r="H1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>235</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
@@ -7595,7 +7580,7 @@
         <f>SUM(I2:J2)/2</f>
         <v>3.25</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="32">
         <f>K2*F2-G2</f>
         <v>900</v>
       </c>
@@ -7639,7 +7624,7 @@
         <f t="shared" ref="K3:K66" si="0">SUM(I3:J3)/2</f>
         <v>7.5</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="32">
         <f t="shared" ref="L3:L66" si="1">K3*F3-G3</f>
         <v>3350</v>
       </c>
@@ -7683,7 +7668,7 @@
         <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="32">
         <f t="shared" si="1"/>
         <v>2950</v>
       </c>
@@ -7727,7 +7712,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="32">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
@@ -7771,7 +7756,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="32">
         <f t="shared" si="1"/>
         <v>2451.25</v>
       </c>
@@ -7815,7 +7800,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="32">
         <f t="shared" si="1"/>
         <v>2350</v>
       </c>
@@ -7859,7 +7844,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="32">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
@@ -7903,7 +7888,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="32">
         <f t="shared" si="1"/>
         <v>2340</v>
       </c>
@@ -7947,7 +7932,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="32">
         <f t="shared" si="1"/>
         <v>3380</v>
       </c>
@@ -7991,7 +7976,7 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="32">
         <f t="shared" si="1"/>
         <v>3577.5</v>
       </c>
@@ -8035,7 +8020,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="32">
         <f t="shared" si="1"/>
         <v>4050</v>
       </c>
@@ -8079,7 +8064,7 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="32">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
@@ -8123,7 +8108,7 @@
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="32">
         <f t="shared" si="1"/>
         <v>5150</v>
       </c>
@@ -8167,7 +8152,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="32">
         <f t="shared" si="1"/>
         <v>1910</v>
       </c>
@@ -8211,7 +8196,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="32">
         <f t="shared" si="1"/>
         <v>1487.5</v>
       </c>
@@ -8255,7 +8240,7 @@
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="32">
         <f t="shared" si="1"/>
         <v>835</v>
       </c>
@@ -8299,7 +8284,7 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="32">
         <f t="shared" si="1"/>
         <v>3162.5</v>
       </c>
@@ -8343,7 +8328,7 @@
         <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="32">
         <f t="shared" si="1"/>
         <v>2785</v>
       </c>
@@ -8387,7 +8372,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="32">
         <f t="shared" si="1"/>
         <v>1960</v>
       </c>
@@ -8431,7 +8416,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="32">
         <f t="shared" si="1"/>
         <v>2316.25</v>
       </c>
@@ -8475,7 +8460,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="32">
         <f t="shared" si="1"/>
         <v>2210</v>
       </c>
@@ -8519,7 +8504,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="32">
         <f t="shared" si="1"/>
         <v>2350</v>
       </c>
@@ -8563,7 +8548,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="32">
         <f t="shared" si="1"/>
         <v>2205</v>
       </c>
@@ -8607,7 +8592,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="32">
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
@@ -8651,7 +8636,7 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="32">
         <f t="shared" si="1"/>
         <v>3390</v>
       </c>
@@ -8695,7 +8680,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="32">
         <f t="shared" si="1"/>
         <v>3850</v>
       </c>
@@ -8739,7 +8724,7 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="32">
         <f t="shared" si="1"/>
         <v>3275</v>
       </c>
@@ -8783,7 +8768,7 @@
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="32">
         <f t="shared" si="1"/>
         <v>4825</v>
       </c>
@@ -8827,7 +8812,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="32">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
@@ -8871,7 +8856,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="32">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
@@ -8915,7 +8900,7 @@
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="32">
         <f t="shared" si="1"/>
         <v>770</v>
       </c>
@@ -8959,7 +8944,7 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="32">
         <f t="shared" si="1"/>
         <v>2975</v>
       </c>
@@ -9003,7 +8988,7 @@
         <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="32">
         <f t="shared" si="1"/>
         <v>2620</v>
       </c>
@@ -9047,7 +9032,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="32">
         <f t="shared" si="1"/>
         <v>1855</v>
       </c>
@@ -9091,7 +9076,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="32">
         <f t="shared" si="1"/>
         <v>2181.25</v>
       </c>
@@ -9135,7 +9120,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="32">
         <f t="shared" si="1"/>
         <v>2070</v>
       </c>
@@ -9179,7 +9164,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="32">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
@@ -9223,7 +9208,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="32">
         <f t="shared" si="1"/>
         <v>2070</v>
       </c>
@@ -9267,7 +9252,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="32">
         <f t="shared" si="1"/>
         <v>3020</v>
       </c>
@@ -9311,7 +9296,7 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="32">
         <f t="shared" si="1"/>
         <v>3202.5</v>
       </c>
@@ -9355,7 +9340,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="32">
         <f t="shared" si="1"/>
         <v>3650</v>
       </c>
@@ -9399,7 +9384,7 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="32">
         <f t="shared" si="1"/>
         <v>3050</v>
       </c>
@@ -9443,7 +9428,7 @@
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="32">
         <f t="shared" si="1"/>
         <v>4500</v>
       </c>
@@ -9487,7 +9472,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="32">
         <f t="shared" si="1"/>
         <v>1690</v>
       </c>
@@ -9531,7 +9516,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="32">
         <f t="shared" si="1"/>
         <v>1312.5</v>
       </c>
@@ -9575,7 +9560,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="32">
         <f t="shared" si="1"/>
         <v>2820</v>
       </c>
@@ -9619,7 +9604,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="32">
         <f t="shared" si="1"/>
         <v>22000</v>
       </c>
@@ -9663,7 +9648,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="32">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
@@ -9707,7 +9692,7 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="32">
         <f t="shared" si="1"/>
         <v>17500</v>
       </c>
@@ -9751,7 +9736,7 @@
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="32">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
@@ -9795,7 +9780,7 @@
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="32">
         <f t="shared" si="1"/>
         <v>13000</v>
       </c>
@@ -9839,7 +9824,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="32">
         <f t="shared" si="1"/>
         <v>33200</v>
       </c>
@@ -9883,7 +9868,7 @@
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="32">
         <f t="shared" si="1"/>
         <v>13225</v>
       </c>
@@ -9927,7 +9912,7 @@
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="32">
         <f t="shared" si="1"/>
         <v>11000</v>
       </c>
@@ -9971,7 +9956,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="32">
         <f t="shared" si="1"/>
         <v>15750</v>
       </c>
@@ -10015,7 +10000,7 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="32">
         <f t="shared" si="1"/>
         <v>21150</v>
       </c>
@@ -10059,7 +10044,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="32">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
@@ -10103,7 +10088,7 @@
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="32">
         <f t="shared" si="1"/>
         <v>16800</v>
       </c>
@@ -10147,7 +10132,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="32">
         <f t="shared" si="1"/>
         <v>81100</v>
       </c>
@@ -10191,7 +10176,7 @@
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="32">
         <f t="shared" si="1"/>
         <v>19925</v>
       </c>
@@ -10235,7 +10220,7 @@
         <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="32">
         <f t="shared" si="1"/>
         <v>10600</v>
       </c>
@@ -10279,7 +10264,7 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="32">
         <f t="shared" si="1"/>
         <v>40900</v>
       </c>
@@ -10323,7 +10308,7 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="32">
         <f t="shared" si="1"/>
         <v>20500</v>
       </c>
@@ -10367,7 +10352,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="32">
         <f t="shared" si="1"/>
         <v>21100</v>
       </c>
@@ -10411,7 +10396,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="32">
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
@@ -10455,7 +10440,7 @@
         <f t="shared" ref="K67:K108" si="3">SUM(I67:J67)/2</f>
         <v>6.75</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="32">
         <f t="shared" ref="L67:L108" si="4">K67*F67-G67</f>
         <v>15000</v>
       </c>
@@ -10474,7 +10459,7 @@
       <c r="C68" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="33" t="s">
         <v>152</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -10499,7 +10484,7 @@
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="32">
         <f t="shared" si="4"/>
         <v>21000</v>
       </c>
@@ -10543,7 +10528,7 @@
         <f t="shared" si="3"/>
         <v>3.75</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="32">
         <f t="shared" si="4"/>
         <v>6600</v>
       </c>
@@ -10587,7 +10572,7 @@
         <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="32">
         <f t="shared" si="4"/>
         <v>16350</v>
       </c>
@@ -10631,7 +10616,7 @@
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="32">
         <f t="shared" si="4"/>
         <v>41600</v>
       </c>
@@ -10675,7 +10660,7 @@
         <f t="shared" si="3"/>
         <v>5.75</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="32">
         <f t="shared" si="4"/>
         <v>16275</v>
       </c>
@@ -10719,7 +10704,7 @@
         <f t="shared" si="3"/>
         <v>5.25</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="32">
         <f t="shared" si="4"/>
         <v>13750</v>
       </c>
@@ -10763,7 +10748,7 @@
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="32">
         <f t="shared" si="4"/>
         <v>19000</v>
       </c>
@@ -10807,7 +10792,7 @@
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="32">
         <f t="shared" si="4"/>
         <v>25750</v>
       </c>
@@ -10851,7 +10836,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="32">
         <f t="shared" si="4"/>
         <v>23000</v>
       </c>
@@ -10895,7 +10880,7 @@
         <f t="shared" si="3"/>
         <v>5.75</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="32">
         <f t="shared" si="4"/>
         <v>21000</v>
       </c>
@@ -10939,7 +10924,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="32">
         <f t="shared" si="4"/>
         <v>101500</v>
       </c>
@@ -10983,7 +10968,7 @@
         <f t="shared" si="3"/>
         <v>5.25</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="32">
         <f t="shared" si="4"/>
         <v>24250</v>
       </c>
@@ -11027,7 +11012,7 @@
         <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="32">
         <f t="shared" si="4"/>
         <v>13300</v>
       </c>
@@ -11071,7 +11056,7 @@
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="32">
         <f t="shared" si="4"/>
         <v>49000</v>
       </c>
@@ -11115,7 +11100,7 @@
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="32">
         <f t="shared" si="4"/>
         <v>24500</v>
       </c>
@@ -11159,7 +11144,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="32">
         <f t="shared" si="4"/>
         <v>25300</v>
       </c>
@@ -11203,7 +11188,7 @@
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="32">
         <f t="shared" si="4"/>
         <v>10500</v>
       </c>
@@ -11247,7 +11232,7 @@
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="32">
         <f t="shared" si="4"/>
         <v>9500</v>
       </c>
@@ -11291,7 +11276,7 @@
         <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="32">
         <f t="shared" si="4"/>
         <v>9250</v>
       </c>
@@ -11335,7 +11320,7 @@
         <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="32">
         <f t="shared" si="4"/>
         <v>284500</v>
       </c>
@@ -11379,7 +11364,7 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="32">
         <f t="shared" si="4"/>
         <v>74000</v>
       </c>
@@ -11423,7 +11408,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="32">
         <f t="shared" si="4"/>
         <v>150000</v>
       </c>
@@ -11467,7 +11452,7 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="32">
         <f t="shared" si="4"/>
         <v>90000</v>
       </c>
@@ -11511,7 +11496,7 @@
         <f t="shared" si="3"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="32">
         <f t="shared" si="4"/>
         <v>28080.000000000004</v>
       </c>
@@ -11555,7 +11540,7 @@
         <f t="shared" si="3"/>
         <v>8.1</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="32">
         <f t="shared" si="4"/>
         <v>16500</v>
       </c>
@@ -11599,7 +11584,7 @@
         <f t="shared" si="3"/>
         <v>7.8</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="32">
         <f t="shared" si="4"/>
         <v>22320</v>
       </c>
@@ -11643,7 +11628,7 @@
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="32">
         <f t="shared" si="4"/>
         <v>7260</v>
       </c>
@@ -11687,7 +11672,7 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="32">
         <f t="shared" si="4"/>
         <v>17610</v>
       </c>
@@ -11731,7 +11716,7 @@
         <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="32">
         <f t="shared" si="4"/>
         <v>44880</v>
       </c>
@@ -11775,7 +11760,7 @@
         <f t="shared" si="3"/>
         <v>6.9</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="32">
         <f t="shared" si="4"/>
         <v>17700</v>
       </c>
@@ -11819,7 +11804,7 @@
         <f t="shared" si="3"/>
         <v>6.8</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="32">
         <f t="shared" si="4"/>
         <v>16160</v>
       </c>
@@ -11863,7 +11848,7 @@
         <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="32">
         <f t="shared" si="4"/>
         <v>20460</v>
       </c>
@@ -11907,7 +11892,7 @@
         <f t="shared" si="3"/>
         <v>7.8</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="32">
         <f t="shared" si="4"/>
         <v>28130</v>
       </c>
@@ -11951,7 +11936,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="32">
         <f t="shared" si="4"/>
         <v>24800</v>
       </c>
@@ -11995,7 +11980,7 @@
         <f t="shared" si="3"/>
         <v>6.9</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="32">
         <f t="shared" si="4"/>
         <v>22640</v>
       </c>
@@ -12039,7 +12024,7 @@
         <f t="shared" si="3"/>
         <v>8.4</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="32">
         <f t="shared" si="4"/>
         <v>109550</v>
       </c>
@@ -12083,7 +12068,7 @@
         <f t="shared" si="3"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="32">
         <f t="shared" si="4"/>
         <v>26150.000000000004</v>
       </c>
@@ -12127,7 +12112,7 @@
         <f t="shared" si="3"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="L105">
+      <c r="L105" s="32">
         <f t="shared" si="4"/>
         <v>14359.999999999998</v>
       </c>
@@ -12171,7 +12156,7 @@
         <f t="shared" si="3"/>
         <v>5.4</v>
       </c>
-      <c r="L106">
+      <c r="L106" s="32">
         <f t="shared" si="4"/>
         <v>53900.000000000007</v>
       </c>
@@ -12215,7 +12200,7 @@
         <f t="shared" si="3"/>
         <v>5.4</v>
       </c>
-      <c r="L107">
+      <c r="L107" s="32">
         <f t="shared" si="4"/>
         <v>26410.000000000004</v>
       </c>
@@ -12259,7 +12244,7 @@
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
-      <c r="L108">
+      <c r="L108" s="32">
         <f t="shared" si="4"/>
         <v>27600</v>
       </c>
@@ -12299,6 +12284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M108">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -12311,7 +12297,6 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/附件2.xlsx
+++ b/附件2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\flas\source\course\modelling\agristrat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EE49D8-43C7-4B7C-BA08-67175AE3E034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5BFDF2-221A-428E-B2CF-6B141B4D2AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023年的农作物种植情况" sheetId="4" r:id="rId1"/>
@@ -2050,21 +2050,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">(2) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>智慧大棚第一季可种植的蔬菜作物及其亩产量、种植成本和销售价格均与普通大棚相同，表中省略。</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -2213,6 +2198,22 @@
   </si>
   <si>
     <t>profit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智慧大棚第一季可种植的蔬菜作物及其亩产量、种植成本和销售价格均与普通大棚相同，表中省略。</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2221,7 +2222,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="General\(&quot;¥&quot;\/&quot;亩&quot;\)"/>
+    <numFmt numFmtId="176" formatCode="General\(&quot;¥&quot;\/&quot;亩&quot;\)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -2550,19 +2551,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3441,7 +3442,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="4">
@@ -3461,7 +3462,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="4">
         <v>36</v>
       </c>
@@ -3479,7 +3480,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="4">
@@ -3499,7 +3500,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="4">
         <v>35</v>
       </c>
@@ -3517,7 +3518,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="4">
@@ -3537,7 +3538,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="4">
         <v>35</v>
       </c>
@@ -3555,7 +3556,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="31" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="4">
@@ -3575,7 +3576,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="4">
         <v>35</v>
       </c>
@@ -3593,7 +3594,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B36" s="4">
@@ -3613,7 +3614,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="4">
         <v>36</v>
       </c>
@@ -3631,7 +3632,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="4">
@@ -3651,7 +3652,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="4">
         <v>37</v>
       </c>
@@ -3709,7 +3710,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="31" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="4">
@@ -3729,7 +3730,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="4">
         <v>38</v>
       </c>
@@ -3747,7 +3748,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="31" t="s">
         <v>95</v>
       </c>
       <c r="B44" s="4">
@@ -3767,7 +3768,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="4">
         <v>38</v>
       </c>
@@ -3785,7 +3786,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="31" t="s">
         <v>127</v>
       </c>
       <c r="B46" s="4">
@@ -3805,7 +3806,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="4">
         <v>38</v>
       </c>
@@ -3823,7 +3824,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="31" t="s">
         <v>128</v>
       </c>
       <c r="B48" s="4">
@@ -3843,7 +3844,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="4">
         <v>39</v>
       </c>
@@ -3861,7 +3862,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="31" t="s">
         <v>96</v>
       </c>
       <c r="B50" s="4">
@@ -3881,7 +3882,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="4">
         <v>39</v>
       </c>
@@ -3899,7 +3900,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="31" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="4">
@@ -3919,7 +3920,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="4">
         <v>39</v>
       </c>
@@ -3937,7 +3938,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="31" t="s">
         <v>98</v>
       </c>
       <c r="B54" s="4">
@@ -3957,7 +3958,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="4">
         <v>40</v>
       </c>
@@ -3975,7 +3976,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="31" t="s">
         <v>129</v>
       </c>
       <c r="B56" s="4">
@@ -3995,7 +3996,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="4">
         <v>40</v>
       </c>
@@ -4013,7 +4014,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="31" t="s">
         <v>99</v>
       </c>
       <c r="B58" s="4">
@@ -4033,7 +4034,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="4">
         <v>40</v>
       </c>
@@ -4051,7 +4052,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="31" t="s">
         <v>100</v>
       </c>
       <c r="B60" s="4">
@@ -4071,7 +4072,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="4">
         <v>41</v>
       </c>
@@ -4089,7 +4090,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="31" t="s">
         <v>101</v>
       </c>
       <c r="B62" s="4">
@@ -4109,7 +4110,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="4">
         <v>41</v>
       </c>
@@ -4127,7 +4128,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="31" t="s">
         <v>102</v>
       </c>
       <c r="B64" s="4">
@@ -4147,7 +4148,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="4">
         <v>41</v>
       </c>
@@ -4165,7 +4166,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="31" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="4">
@@ -4185,7 +4186,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="4">
         <v>41</v>
       </c>
@@ -4203,7 +4204,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="31" t="s">
         <v>104</v>
       </c>
       <c r="B68" s="4">
@@ -4223,7 +4224,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="4">
         <v>41</v>
       </c>
@@ -4241,7 +4242,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="31" t="s">
         <v>130</v>
       </c>
       <c r="B70" s="4">
@@ -4261,7 +4262,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="4">
         <v>27</v>
       </c>
@@ -4279,7 +4280,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="4">
         <v>41</v>
       </c>
@@ -4297,7 +4298,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="31" t="s">
         <v>131</v>
       </c>
       <c r="B73" s="4">
@@ -4317,7 +4318,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="4">
         <v>41</v>
       </c>
@@ -4335,7 +4336,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="31" t="s">
         <v>105</v>
       </c>
       <c r="B75" s="4">
@@ -4355,7 +4356,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="4">
         <v>33</v>
       </c>
@@ -4373,7 +4374,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="4">
         <v>24</v>
       </c>
@@ -4391,7 +4392,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="4">
         <v>21</v>
       </c>
@@ -4409,7 +4410,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="31" t="s">
         <v>106</v>
       </c>
       <c r="B79" s="4">
@@ -4429,7 +4430,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="4">
         <v>26</v>
       </c>
@@ -4447,7 +4448,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="4">
         <v>22</v>
       </c>
@@ -4465,7 +4466,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="4">
         <v>29</v>
       </c>
@@ -4483,7 +4484,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="31" t="s">
         <v>132</v>
       </c>
       <c r="B83" s="4">
@@ -4503,7 +4504,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="4">
         <v>28</v>
       </c>
@@ -4521,7 +4522,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="4">
         <v>30</v>
       </c>
@@ -4539,7 +4540,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="31" t="s">
         <v>133</v>
       </c>
       <c r="B86" s="4">
@@ -4559,7 +4560,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="4">
         <v>34</v>
       </c>
@@ -4577,7 +4578,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="4">
         <v>23</v>
       </c>
@@ -4596,12 +4597,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A70:A72"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
@@ -4617,11 +4617,12 @@
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4636,8 +4637,8 @@
   </sheetPr>
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4673,10 +4674,10 @@
         <v>135</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -7473,7 +7474,7 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="15" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -7489,8 +7490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5CC932-073B-4BEF-AB94-6447BA46F6AC}">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7524,25 +7525,25 @@
         <v>135</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>234</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
@@ -7580,7 +7581,7 @@
         <f>SUM(I2:J2)/2</f>
         <v>3.25</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="29">
         <f>K2*F2-G2</f>
         <v>900</v>
       </c>
@@ -7624,7 +7625,7 @@
         <f t="shared" ref="K3:K66" si="0">SUM(I3:J3)/2</f>
         <v>7.5</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="29">
         <f t="shared" ref="L3:L66" si="1">K3*F3-G3</f>
         <v>3350</v>
       </c>
@@ -7668,7 +7669,7 @@
         <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="29">
         <f t="shared" si="1"/>
         <v>2950</v>
       </c>
@@ -7712,7 +7713,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="29">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
@@ -7756,7 +7757,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="29">
         <f t="shared" si="1"/>
         <v>2451.25</v>
       </c>
@@ -7800,7 +7801,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="29">
         <f t="shared" si="1"/>
         <v>2350</v>
       </c>
@@ -7844,7 +7845,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="29">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
@@ -7888,7 +7889,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="29">
         <f t="shared" si="1"/>
         <v>2340</v>
       </c>
@@ -7932,7 +7933,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="29">
         <f t="shared" si="1"/>
         <v>3380</v>
       </c>
@@ -7976,7 +7977,7 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="29">
         <f t="shared" si="1"/>
         <v>3577.5</v>
       </c>
@@ -8020,7 +8021,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="29">
         <f t="shared" si="1"/>
         <v>4050</v>
       </c>
@@ -8064,7 +8065,7 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="29">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
@@ -8108,7 +8109,7 @@
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="29">
         <f t="shared" si="1"/>
         <v>5150</v>
       </c>
@@ -8152,7 +8153,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="29">
         <f t="shared" si="1"/>
         <v>1910</v>
       </c>
@@ -8196,7 +8197,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="29">
         <f t="shared" si="1"/>
         <v>1487.5</v>
       </c>
@@ -8240,7 +8241,7 @@
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="29">
         <f t="shared" si="1"/>
         <v>835</v>
       </c>
@@ -8284,7 +8285,7 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="29">
         <f t="shared" si="1"/>
         <v>3162.5</v>
       </c>
@@ -8328,7 +8329,7 @@
         <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="29">
         <f t="shared" si="1"/>
         <v>2785</v>
       </c>
@@ -8372,7 +8373,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="29">
         <f t="shared" si="1"/>
         <v>1960</v>
       </c>
@@ -8416,7 +8417,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="29">
         <f t="shared" si="1"/>
         <v>2316.25</v>
       </c>
@@ -8460,7 +8461,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="29">
         <f t="shared" si="1"/>
         <v>2210</v>
       </c>
@@ -8504,7 +8505,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L23" s="32">
+      <c r="L23" s="29">
         <f t="shared" si="1"/>
         <v>2350</v>
       </c>
@@ -8548,7 +8549,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="29">
         <f t="shared" si="1"/>
         <v>2205</v>
       </c>
@@ -8592,7 +8593,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="29">
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
@@ -8636,7 +8637,7 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="29">
         <f t="shared" si="1"/>
         <v>3390</v>
       </c>
@@ -8680,7 +8681,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L27" s="29">
         <f t="shared" si="1"/>
         <v>3850</v>
       </c>
@@ -8724,7 +8725,7 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="29">
         <f t="shared" si="1"/>
         <v>3275</v>
       </c>
@@ -8768,7 +8769,7 @@
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="29">
         <f t="shared" si="1"/>
         <v>4825</v>
       </c>
@@ -8812,7 +8813,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L30" s="29">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
@@ -8856,7 +8857,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L31" s="32">
+      <c r="L31" s="29">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
@@ -8900,7 +8901,7 @@
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="L32" s="32">
+      <c r="L32" s="29">
         <f t="shared" si="1"/>
         <v>770</v>
       </c>
@@ -8944,7 +8945,7 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="L33" s="32">
+      <c r="L33" s="29">
         <f t="shared" si="1"/>
         <v>2975</v>
       </c>
@@ -8988,7 +8989,7 @@
         <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
-      <c r="L34" s="32">
+      <c r="L34" s="29">
         <f t="shared" si="1"/>
         <v>2620</v>
       </c>
@@ -9032,7 +9033,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L35" s="32">
+      <c r="L35" s="29">
         <f t="shared" si="1"/>
         <v>1855</v>
       </c>
@@ -9076,7 +9077,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L36" s="32">
+      <c r="L36" s="29">
         <f t="shared" si="1"/>
         <v>2181.25</v>
       </c>
@@ -9120,7 +9121,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L37" s="32">
+      <c r="L37" s="29">
         <f t="shared" si="1"/>
         <v>2070</v>
       </c>
@@ -9164,7 +9165,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="29">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
@@ -9208,7 +9209,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L39" s="32">
+      <c r="L39" s="29">
         <f t="shared" si="1"/>
         <v>2070</v>
       </c>
@@ -9252,7 +9253,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L40" s="32">
+      <c r="L40" s="29">
         <f t="shared" si="1"/>
         <v>3020</v>
       </c>
@@ -9296,7 +9297,7 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="L41" s="32">
+      <c r="L41" s="29">
         <f t="shared" si="1"/>
         <v>3202.5</v>
       </c>
@@ -9340,7 +9341,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L42" s="32">
+      <c r="L42" s="29">
         <f t="shared" si="1"/>
         <v>3650</v>
       </c>
@@ -9384,7 +9385,7 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="L43" s="32">
+      <c r="L43" s="29">
         <f t="shared" si="1"/>
         <v>3050</v>
       </c>
@@ -9428,7 +9429,7 @@
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="L44" s="32">
+      <c r="L44" s="29">
         <f t="shared" si="1"/>
         <v>4500</v>
       </c>
@@ -9472,7 +9473,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="L45" s="32">
+      <c r="L45" s="29">
         <f t="shared" si="1"/>
         <v>1690</v>
       </c>
@@ -9516,7 +9517,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L46" s="32">
+      <c r="L46" s="29">
         <f t="shared" si="1"/>
         <v>1312.5</v>
       </c>
@@ -9560,7 +9561,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L47" s="32">
+      <c r="L47" s="29">
         <f t="shared" si="1"/>
         <v>2820</v>
       </c>
@@ -9604,7 +9605,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L48" s="32">
+      <c r="L48" s="29">
         <f t="shared" si="1"/>
         <v>22000</v>
       </c>
@@ -9648,7 +9649,7 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L49" s="32">
+      <c r="L49" s="29">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
@@ -9692,7 +9693,7 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="L50" s="32">
+      <c r="L50" s="29">
         <f t="shared" si="1"/>
         <v>17500</v>
       </c>
@@ -9736,7 +9737,7 @@
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="L51" s="32">
+      <c r="L51" s="29">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
@@ -9780,7 +9781,7 @@
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="L52" s="32">
+      <c r="L52" s="29">
         <f t="shared" si="1"/>
         <v>13000</v>
       </c>
@@ -9824,7 +9825,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="L53" s="32">
+      <c r="L53" s="29">
         <f t="shared" si="1"/>
         <v>33200</v>
       </c>
@@ -9868,7 +9869,7 @@
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="L54" s="32">
+      <c r="L54" s="29">
         <f t="shared" si="1"/>
         <v>13225</v>
       </c>
@@ -9912,7 +9913,7 @@
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
-      <c r="L55" s="32">
+      <c r="L55" s="29">
         <f t="shared" si="1"/>
         <v>11000</v>
       </c>
@@ -9956,7 +9957,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="L56" s="32">
+      <c r="L56" s="29">
         <f t="shared" si="1"/>
         <v>15750</v>
       </c>
@@ -10000,7 +10001,7 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="L57" s="32">
+      <c r="L57" s="29">
         <f t="shared" si="1"/>
         <v>21150</v>
       </c>
@@ -10044,7 +10045,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L58" s="32">
+      <c r="L58" s="29">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
@@ -10088,7 +10089,7 @@
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="L59" s="32">
+      <c r="L59" s="29">
         <f t="shared" si="1"/>
         <v>16800</v>
       </c>
@@ -10132,7 +10133,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L60" s="32">
+      <c r="L60" s="29">
         <f t="shared" si="1"/>
         <v>81100</v>
       </c>
@@ -10176,7 +10177,7 @@
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
-      <c r="L61" s="32">
+      <c r="L61" s="29">
         <f t="shared" si="1"/>
         <v>19925</v>
       </c>
@@ -10220,7 +10221,7 @@
         <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
-      <c r="L62" s="32">
+      <c r="L62" s="29">
         <f t="shared" si="1"/>
         <v>10600</v>
       </c>
@@ -10264,7 +10265,7 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="L63" s="32">
+      <c r="L63" s="29">
         <f t="shared" si="1"/>
         <v>40900</v>
       </c>
@@ -10308,7 +10309,7 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="L64" s="32">
+      <c r="L64" s="29">
         <f t="shared" si="1"/>
         <v>20500</v>
       </c>
@@ -10352,7 +10353,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L65" s="32">
+      <c r="L65" s="29">
         <f t="shared" si="1"/>
         <v>21100</v>
       </c>
@@ -10396,7 +10397,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L66" s="32">
+      <c r="L66" s="29">
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
@@ -10440,7 +10441,7 @@
         <f t="shared" ref="K67:K108" si="3">SUM(I67:J67)/2</f>
         <v>6.75</v>
       </c>
-      <c r="L67" s="32">
+      <c r="L67" s="29">
         <f t="shared" ref="L67:L108" si="4">K67*F67-G67</f>
         <v>15000</v>
       </c>
@@ -10459,7 +10460,7 @@
       <c r="C68" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="D68" s="30" t="s">
         <v>152</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -10484,7 +10485,7 @@
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="L68" s="32">
+      <c r="L68" s="29">
         <f t="shared" si="4"/>
         <v>21000</v>
       </c>
@@ -10528,7 +10529,7 @@
         <f t="shared" si="3"/>
         <v>3.75</v>
       </c>
-      <c r="L69" s="32">
+      <c r="L69" s="29">
         <f t="shared" si="4"/>
         <v>6600</v>
       </c>
@@ -10572,7 +10573,7 @@
         <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
-      <c r="L70" s="32">
+      <c r="L70" s="29">
         <f t="shared" si="4"/>
         <v>16350</v>
       </c>
@@ -10616,7 +10617,7 @@
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="L71" s="32">
+      <c r="L71" s="29">
         <f t="shared" si="4"/>
         <v>41600</v>
       </c>
@@ -10660,7 +10661,7 @@
         <f t="shared" si="3"/>
         <v>5.75</v>
       </c>
-      <c r="L72" s="32">
+      <c r="L72" s="29">
         <f t="shared" si="4"/>
         <v>16275</v>
       </c>
@@ -10704,7 +10705,7 @@
         <f t="shared" si="3"/>
         <v>5.25</v>
       </c>
-      <c r="L73" s="32">
+      <c r="L73" s="29">
         <f t="shared" si="4"/>
         <v>13750</v>
       </c>
@@ -10748,7 +10749,7 @@
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="L74" s="32">
+      <c r="L74" s="29">
         <f t="shared" si="4"/>
         <v>19000</v>
       </c>
@@ -10792,7 +10793,7 @@
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="L75" s="32">
+      <c r="L75" s="29">
         <f t="shared" si="4"/>
         <v>25750</v>
       </c>
@@ -10836,7 +10837,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L76" s="32">
+      <c r="L76" s="29">
         <f t="shared" si="4"/>
         <v>23000</v>
       </c>
@@ -10880,7 +10881,7 @@
         <f t="shared" si="3"/>
         <v>5.75</v>
       </c>
-      <c r="L77" s="32">
+      <c r="L77" s="29">
         <f t="shared" si="4"/>
         <v>21000</v>
       </c>
@@ -10924,7 +10925,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L78" s="32">
+      <c r="L78" s="29">
         <f t="shared" si="4"/>
         <v>101500</v>
       </c>
@@ -10968,7 +10969,7 @@
         <f t="shared" si="3"/>
         <v>5.25</v>
       </c>
-      <c r="L79" s="32">
+      <c r="L79" s="29">
         <f t="shared" si="4"/>
         <v>24250</v>
       </c>
@@ -11012,7 +11013,7 @@
         <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
-      <c r="L80" s="32">
+      <c r="L80" s="29">
         <f t="shared" si="4"/>
         <v>13300</v>
       </c>
@@ -11056,7 +11057,7 @@
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="L81" s="32">
+      <c r="L81" s="29">
         <f t="shared" si="4"/>
         <v>49000</v>
       </c>
@@ -11100,7 +11101,7 @@
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="L82" s="32">
+      <c r="L82" s="29">
         <f t="shared" si="4"/>
         <v>24500</v>
       </c>
@@ -11144,7 +11145,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L83" s="32">
+      <c r="L83" s="29">
         <f t="shared" si="4"/>
         <v>25300</v>
       </c>
@@ -11188,7 +11189,7 @@
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="L84" s="32">
+      <c r="L84" s="29">
         <f t="shared" si="4"/>
         <v>10500</v>
       </c>
@@ -11232,7 +11233,7 @@
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="L85" s="32">
+      <c r="L85" s="29">
         <f t="shared" si="4"/>
         <v>9500</v>
       </c>
@@ -11276,7 +11277,7 @@
         <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
-      <c r="L86" s="32">
+      <c r="L86" s="29">
         <f t="shared" si="4"/>
         <v>9250</v>
       </c>
@@ -11320,7 +11321,7 @@
         <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
-      <c r="L87" s="32">
+      <c r="L87" s="29">
         <f t="shared" si="4"/>
         <v>284500</v>
       </c>
@@ -11364,7 +11365,7 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="L88" s="32">
+      <c r="L88" s="29">
         <f t="shared" si="4"/>
         <v>74000</v>
       </c>
@@ -11408,7 +11409,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="L89" s="32">
+      <c r="L89" s="29">
         <f t="shared" si="4"/>
         <v>150000</v>
       </c>
@@ -11452,7 +11453,7 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L90" s="32">
+      <c r="L90" s="29">
         <f t="shared" si="4"/>
         <v>90000</v>
       </c>
@@ -11496,7 +11497,7 @@
         <f t="shared" si="3"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="L91" s="32">
+      <c r="L91" s="29">
         <f t="shared" si="4"/>
         <v>28080.000000000004</v>
       </c>
@@ -11540,7 +11541,7 @@
         <f t="shared" si="3"/>
         <v>8.1</v>
       </c>
-      <c r="L92" s="32">
+      <c r="L92" s="29">
         <f t="shared" si="4"/>
         <v>16500</v>
       </c>
@@ -11584,7 +11585,7 @@
         <f t="shared" si="3"/>
         <v>7.8</v>
       </c>
-      <c r="L93" s="32">
+      <c r="L93" s="29">
         <f t="shared" si="4"/>
         <v>22320</v>
       </c>
@@ -11628,7 +11629,7 @@
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="L94" s="32">
+      <c r="L94" s="29">
         <f t="shared" si="4"/>
         <v>7260</v>
       </c>
@@ -11672,7 +11673,7 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="L95" s="32">
+      <c r="L95" s="29">
         <f t="shared" si="4"/>
         <v>17610</v>
       </c>
@@ -11716,7 +11717,7 @@
         <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
-      <c r="L96" s="32">
+      <c r="L96" s="29">
         <f t="shared" si="4"/>
         <v>44880</v>
       </c>
@@ -11760,7 +11761,7 @@
         <f t="shared" si="3"/>
         <v>6.9</v>
       </c>
-      <c r="L97" s="32">
+      <c r="L97" s="29">
         <f t="shared" si="4"/>
         <v>17700</v>
       </c>
@@ -11804,7 +11805,7 @@
         <f t="shared" si="3"/>
         <v>6.8</v>
       </c>
-      <c r="L98" s="32">
+      <c r="L98" s="29">
         <f t="shared" si="4"/>
         <v>16160</v>
       </c>
@@ -11848,7 +11849,7 @@
         <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
-      <c r="L99" s="32">
+      <c r="L99" s="29">
         <f t="shared" si="4"/>
         <v>20460</v>
       </c>
@@ -11892,7 +11893,7 @@
         <f t="shared" si="3"/>
         <v>7.8</v>
       </c>
-      <c r="L100" s="32">
+      <c r="L100" s="29">
         <f t="shared" si="4"/>
         <v>28130</v>
       </c>
@@ -11936,7 +11937,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L101" s="32">
+      <c r="L101" s="29">
         <f t="shared" si="4"/>
         <v>24800</v>
       </c>
@@ -11980,7 +11981,7 @@
         <f t="shared" si="3"/>
         <v>6.9</v>
       </c>
-      <c r="L102" s="32">
+      <c r="L102" s="29">
         <f t="shared" si="4"/>
         <v>22640</v>
       </c>
@@ -12024,7 +12025,7 @@
         <f t="shared" si="3"/>
         <v>8.4</v>
       </c>
-      <c r="L103" s="32">
+      <c r="L103" s="29">
         <f t="shared" si="4"/>
         <v>109550</v>
       </c>
@@ -12068,7 +12069,7 @@
         <f t="shared" si="3"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="L104" s="32">
+      <c r="L104" s="29">
         <f t="shared" si="4"/>
         <v>26150.000000000004</v>
       </c>
@@ -12112,7 +12113,7 @@
         <f t="shared" si="3"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="L105" s="32">
+      <c r="L105" s="29">
         <f t="shared" si="4"/>
         <v>14359.999999999998</v>
       </c>
@@ -12156,7 +12157,7 @@
         <f t="shared" si="3"/>
         <v>5.4</v>
       </c>
-      <c r="L106" s="32">
+      <c r="L106" s="29">
         <f t="shared" si="4"/>
         <v>53900.000000000007</v>
       </c>
@@ -12200,7 +12201,7 @@
         <f t="shared" si="3"/>
         <v>5.4</v>
       </c>
-      <c r="L107" s="32">
+      <c r="L107" s="29">
         <f t="shared" si="4"/>
         <v>26410.000000000004</v>
       </c>
@@ -12244,7 +12245,7 @@
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
-      <c r="L108" s="32">
+      <c r="L108" s="29">
         <f t="shared" si="4"/>
         <v>27600</v>
       </c>
